--- a/assets/numDEs/status/score_part1.xlsx
+++ b/assets/numDEs/status/score_part1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="519">
   <si>
     <t>序号</t>
   </si>
@@ -231,9 +231,6 @@
     <t>37720222205124</t>
   </si>
   <si>
-    <t>总分50</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -492,211 +489,403 @@
     <t>平时分</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>33.9</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>30.6</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>49.7</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>41.2</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44.7</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>38.2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>40.4</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>40.9</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>43.6</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>32.9</t>
-  </si>
-  <si>
-    <t>38.9</t>
-  </si>
-  <si>
-    <t>42.3</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>37.9</t>
-  </si>
-  <si>
-    <t>45.1</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>39.9</t>
-  </si>
-  <si>
-    <t>49.5</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>60.2%</t>
+  </si>
+  <si>
+    <t>53.4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>57.4%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>69.2%</t>
+  </si>
+  <si>
+    <t>78.8%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>53.8%</t>
+  </si>
+  <si>
+    <t>37.2%</t>
+  </si>
+  <si>
+    <t>65.6%</t>
+  </si>
+  <si>
+    <t>40.8%</t>
+  </si>
+  <si>
+    <t>37.4%</t>
+  </si>
+  <si>
+    <t>63.8%</t>
+  </si>
+  <si>
+    <t>70.6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>45.4%</t>
+  </si>
+  <si>
+    <t>58.6%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>66.2%</t>
+  </si>
+  <si>
+    <t>77.6%</t>
+  </si>
+  <si>
+    <t>99.4%</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>80.6%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>73.4%</t>
+  </si>
+  <si>
+    <t>82.4%</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>69.8%</t>
+  </si>
+  <si>
+    <t>58.8%</t>
+  </si>
+  <si>
+    <t>76.2%</t>
+  </si>
+  <si>
+    <t>73.4%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>89.4%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>76.4%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>64.2%</t>
+  </si>
+  <si>
+    <t>69.4%</t>
+  </si>
+  <si>
+    <t>80.8%</t>
+  </si>
+  <si>
+    <t>53.6%</t>
+  </si>
+  <si>
+    <t>66.2%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
+  </si>
+  <si>
+    <t>71.4%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>81.8%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>87.2%</t>
+  </si>
+  <si>
+    <t>71.6%</t>
+  </si>
+  <si>
+    <t>83.6%</t>
+  </si>
+  <si>
+    <t>93.6%</t>
+  </si>
+  <si>
+    <t>65.8%</t>
+  </si>
+  <si>
+    <t>77.8%</t>
+  </si>
+  <si>
+    <t>84.6%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>75.8%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>70.4%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>期末分</t>
+  </si>
+  <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Ｏ</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>序号</t>
@@ -1170,214 +1359,217 @@
     <t>信息与计算科学</t>
   </si>
   <si>
-    <t>平时分(总分50)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>14.8</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>33.9</t>
-  </si>
-  <si>
-    <t>20.4</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>30.6</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>49.7</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>41.2</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>29.4</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44.7</t>
-  </si>
-  <si>
-    <t>48.8</t>
-  </si>
-  <si>
-    <t>38.2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>40.4</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>40.9</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>43.6</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>32.9</t>
-  </si>
-  <si>
-    <t>38.9</t>
-  </si>
-  <si>
-    <t>42.3</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>37.9</t>
-  </si>
-  <si>
-    <t>45.1</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-  <si>
-    <t>39.9</t>
-  </si>
-  <si>
-    <t>49.5</t>
+    <t>平时分</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>60.2%</t>
+  </si>
+  <si>
+    <t>53.4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>57.4%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>69.2%</t>
+  </si>
+  <si>
+    <t>78.8%</t>
+  </si>
+  <si>
+    <t>29.6%</t>
+  </si>
+  <si>
+    <t>53.8%</t>
+  </si>
+  <si>
+    <t>37.2%</t>
+  </si>
+  <si>
+    <t>65.6%</t>
+  </si>
+  <si>
+    <t>40.8%</t>
+  </si>
+  <si>
+    <t>37.4%</t>
+  </si>
+  <si>
+    <t>63.8%</t>
+  </si>
+  <si>
+    <t>70.6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>45.4%</t>
+  </si>
+  <si>
+    <t>58.6%</t>
+  </si>
+  <si>
+    <t>59.6%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>66.2%</t>
+  </si>
+  <si>
+    <t>77.6%</t>
+  </si>
+  <si>
+    <t>99.4%</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>80.6%</t>
+  </si>
+  <si>
+    <t>85.4%</t>
+  </si>
+  <si>
+    <t>73.4%</t>
+  </si>
+  <si>
+    <t>82.4%</t>
+  </si>
+  <si>
+    <t>35.6%</t>
+  </si>
+  <si>
+    <t>69.8%</t>
+  </si>
+  <si>
+    <t>58.8%</t>
+  </si>
+  <si>
+    <t>76.2%</t>
+  </si>
+  <si>
+    <t>73.4%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>89.4%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>76.4%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>64.2%</t>
+  </si>
+  <si>
+    <t>69.4%</t>
+  </si>
+  <si>
+    <t>80.8%</t>
+  </si>
+  <si>
+    <t>53.6%</t>
+  </si>
+  <si>
+    <t>66.2%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
+  </si>
+  <si>
+    <t>71.4%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>81.8%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>87.2%</t>
+  </si>
+  <si>
+    <t>71.6%</t>
+  </si>
+  <si>
+    <t>83.6%</t>
+  </si>
+  <si>
+    <t>93.6%</t>
+  </si>
+  <si>
+    <t>65.8%</t>
+  </si>
+  <si>
+    <t>77.8%</t>
+  </si>
+  <si>
+    <t>84.6%</t>
+  </si>
+  <si>
+    <t>96.6%</t>
+  </si>
+  <si>
+    <t>75.8%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>70.4%</t>
+  </si>
+  <si>
+    <t>79.8%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>期末分</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G73"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="true"/>
@@ -1433,27 +1625,31 @@
     <col min="3" max="3" width="4.7109375" customWidth="true"/>
     <col min="4" max="4" width="7.7109375" customWidth="true"/>
     <col min="5" max="5" width="8.7109375" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="6.28515625" customWidth="true"/>
+    <col min="7" max="7" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>385</v>
+        <v>448</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="2">
@@ -1461,1400 +1657,1470 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>386</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="G2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>231</v>
+        <v>294</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>387</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="G3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>388</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>389</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="G5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>390</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="G6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>306</v>
+        <v>369</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>391</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>392</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="G8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>393</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="G9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>394</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>310</v>
+        <v>373</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>395</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="G11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>396</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="G12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>397</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="G13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>398</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>314</v>
+        <v>377</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>399</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>400</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="G16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>401</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="G17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>402</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="G18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>403</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="G19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>404</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="G20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>405</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="G21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>406</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="G22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>407</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="G23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>408</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>409</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="G25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>410</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="G26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>411</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="G27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>412</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="G28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>413</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="G29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>414</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>415</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="G31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>416</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="G32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>417</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>418</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>419</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>420</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="G36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>421</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="G37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>422</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="G38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>423</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="G39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>424</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="G40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>425</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="G41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>426</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="G42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>427</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>428</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="G44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>429</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="G45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>430</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="G46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>431</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="G47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0">
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>347</v>
+        <v>410</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>432</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>433</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="G49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0">
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>349</v>
+        <v>412</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>434</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="G50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0">
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>435</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="G51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0">
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>436</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0">
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>281</v>
+        <v>344</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>437</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="G53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>438</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="G54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>439</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="G55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>440</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="G56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>441</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="G57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0">
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>442</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="G58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0">
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>443</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="G59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0">
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>444</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0">
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>445</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="G61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0">
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>446</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="G62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0">
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>446</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="G63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>447</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="G64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0">
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>293</v>
+        <v>356</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>448</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0">
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>449</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="G66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>450</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="G67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>451</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="G68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0">
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>452</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="G69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0">
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>298</v>
+        <v>361</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>453</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="G70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>299</v>
+        <v>362</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>454</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="G71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0"/>
@@ -2863,6 +3129,7 @@
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0"/>
@@ -2871,6 +3138,7 @@
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
+      <c r="G73" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/assets/numDEs/status/score_part1.xlsx
+++ b/assets/numDEs/status/score_part1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="746">
   <si>
     <t>序号</t>
   </si>
@@ -1564,6 +1564,687 @@
   </si>
   <si>
     <t>79.8%</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>期末分</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>19020182203624</t>
+  </si>
+  <si>
+    <t>19020202200624</t>
+  </si>
+  <si>
+    <t>19020202202514</t>
+  </si>
+  <si>
+    <t>19020202202528</t>
+  </si>
+  <si>
+    <t>19020202204352</t>
+  </si>
+  <si>
+    <t>19020202204366</t>
+  </si>
+  <si>
+    <t>19020212203411</t>
+  </si>
+  <si>
+    <t>19020212203415</t>
+  </si>
+  <si>
+    <t>19020212203422</t>
+  </si>
+  <si>
+    <t>19020212203431</t>
+  </si>
+  <si>
+    <t>19020212203434</t>
+  </si>
+  <si>
+    <t>19020212203453</t>
+  </si>
+  <si>
+    <t>19020212203455</t>
+  </si>
+  <si>
+    <t>19020212203466</t>
+  </si>
+  <si>
+    <t>19020212203470</t>
+  </si>
+  <si>
+    <t>19020212203473</t>
+  </si>
+  <si>
+    <t>19020212203494</t>
+  </si>
+  <si>
+    <t>19020212203496</t>
+  </si>
+  <si>
+    <t>19020212203509</t>
+  </si>
+  <si>
+    <t>19020212203510</t>
+  </si>
+  <si>
+    <t>19020222202291</t>
+  </si>
+  <si>
+    <t>19020222202292</t>
+  </si>
+  <si>
+    <t>19020222202295</t>
+  </si>
+  <si>
+    <t>19020222202296</t>
+  </si>
+  <si>
+    <t>20420202201837</t>
+  </si>
+  <si>
+    <t>25120212202184</t>
+  </si>
+  <si>
+    <t>25120212202229</t>
+  </si>
+  <si>
+    <t>25120222201341</t>
+  </si>
+  <si>
+    <t>32420222202055</t>
+  </si>
+  <si>
+    <t>37420222204260</t>
+  </si>
+  <si>
+    <t>37520222204509</t>
+  </si>
+  <si>
+    <t>37520222204672</t>
+  </si>
+  <si>
+    <t>37520222204692</t>
+  </si>
+  <si>
+    <t>37720222204903</t>
+  </si>
+  <si>
+    <t>37720222204905</t>
+  </si>
+  <si>
+    <t>37720222204913</t>
+  </si>
+  <si>
+    <t>37720222204916</t>
+  </si>
+  <si>
+    <t>37720222204939</t>
+  </si>
+  <si>
+    <t>37720222204941</t>
+  </si>
+  <si>
+    <t>37720222204946</t>
+  </si>
+  <si>
+    <t>37720222204949</t>
+  </si>
+  <si>
+    <t>37720222204950</t>
+  </si>
+  <si>
+    <t>37720222204966</t>
+  </si>
+  <si>
+    <t>37720222204968</t>
+  </si>
+  <si>
+    <t>37720222204974</t>
+  </si>
+  <si>
+    <t>37720222204986</t>
+  </si>
+  <si>
+    <t>37720222204987</t>
+  </si>
+  <si>
+    <t>37720222204990</t>
+  </si>
+  <si>
+    <t>37720222204994</t>
+  </si>
+  <si>
+    <t>37720222204998</t>
+  </si>
+  <si>
+    <t>37720222204999</t>
+  </si>
+  <si>
+    <t>37720222205009</t>
+  </si>
+  <si>
+    <t>37720222205014</t>
+  </si>
+  <si>
+    <t>37720222205017</t>
+  </si>
+  <si>
+    <t>37720222205018</t>
+  </si>
+  <si>
+    <t>37720222205021</t>
+  </si>
+  <si>
+    <t>37720222205026</t>
+  </si>
+  <si>
+    <t>37720222205030</t>
+  </si>
+  <si>
+    <t>37720222205041</t>
+  </si>
+  <si>
+    <t>37720222205069</t>
+  </si>
+  <si>
+    <t>37720222205078</t>
+  </si>
+  <si>
+    <t>37720222205080</t>
+  </si>
+  <si>
+    <t>37720222205085</t>
+  </si>
+  <si>
+    <t>37720222205088</t>
+  </si>
+  <si>
+    <t>37720222205094</t>
+  </si>
+  <si>
+    <t>37720222205096</t>
+  </si>
+  <si>
+    <t>37720222205105</t>
+  </si>
+  <si>
+    <t>37720222205114</t>
+  </si>
+  <si>
+    <t>37720222205117</t>
+  </si>
+  <si>
+    <t>37720222205124</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>苏宏宇</t>
+  </si>
+  <si>
+    <t>杜雨晴</t>
+  </si>
+  <si>
+    <t>牛雅茹</t>
+  </si>
+  <si>
+    <t>张世豪</t>
+  </si>
+  <si>
+    <t>郭紫熙</t>
+  </si>
+  <si>
+    <t>邢炳萱</t>
+  </si>
+  <si>
+    <t>陈宇润</t>
+  </si>
+  <si>
+    <t>戴子恒</t>
+  </si>
+  <si>
+    <t>韩双御</t>
+  </si>
+  <si>
+    <t>黄学敏</t>
+  </si>
+  <si>
+    <t>蒋志轩</t>
+  </si>
+  <si>
+    <t>刘清华</t>
+  </si>
+  <si>
+    <t>刘铮武</t>
+  </si>
+  <si>
+    <t>邵译萱</t>
+  </si>
+  <si>
+    <t>田加林</t>
+  </si>
+  <si>
+    <t>王清林</t>
+  </si>
+  <si>
+    <t>杨凯旋</t>
+  </si>
+  <si>
+    <t>杨雨涵</t>
+  </si>
+  <si>
+    <t>张永琦</t>
+  </si>
+  <si>
+    <t>赵庆尧</t>
+  </si>
+  <si>
+    <t>陈珂楠</t>
+  </si>
+  <si>
+    <t>傅凌瑶</t>
+  </si>
+  <si>
+    <t>李清星</t>
+  </si>
+  <si>
+    <t>李欣然</t>
+  </si>
+  <si>
+    <t>徐清源</t>
+  </si>
+  <si>
+    <t>黄秉章</t>
+  </si>
+  <si>
+    <t>庄博诚</t>
+  </si>
+  <si>
+    <t>沈仁祥</t>
+  </si>
+  <si>
+    <t>岳宏伟</t>
+  </si>
+  <si>
+    <t>许鑫龙</t>
+  </si>
+  <si>
+    <t>程禹</t>
+  </si>
+  <si>
+    <t>林德耿</t>
+  </si>
+  <si>
+    <t>欧佳俊</t>
+  </si>
+  <si>
+    <t>陈鸿达</t>
+  </si>
+  <si>
+    <t>陈筱锋</t>
+  </si>
+  <si>
+    <t>方泽侗</t>
+  </si>
+  <si>
+    <t>高源</t>
+  </si>
+  <si>
+    <t>连传瀚</t>
+  </si>
+  <si>
+    <t>林清</t>
+  </si>
+  <si>
+    <t>刘宇</t>
+  </si>
+  <si>
+    <t>卢沈昊</t>
+  </si>
+  <si>
+    <t>吕阳</t>
+  </si>
+  <si>
+    <t>王翊君</t>
+  </si>
+  <si>
+    <t>王宇轩</t>
+  </si>
+  <si>
+    <t>夏宇轩</t>
+  </si>
+  <si>
+    <t>张源航</t>
+  </si>
+  <si>
+    <t>张庄辉</t>
+  </si>
+  <si>
+    <t>赵勤励</t>
+  </si>
+  <si>
+    <t>周家辉</t>
+  </si>
+  <si>
+    <t>卜於锴</t>
+  </si>
+  <si>
+    <t>陈柏沣</t>
+  </si>
+  <si>
+    <t>戴坤</t>
+  </si>
+  <si>
+    <t>傅纪宁</t>
+  </si>
+  <si>
+    <t>韩东礼</t>
+  </si>
+  <si>
+    <t>何锦弘</t>
+  </si>
+  <si>
+    <t>洪怡洁</t>
+  </si>
+  <si>
+    <t>兰景琪</t>
+  </si>
+  <si>
+    <t>李福坤</t>
+  </si>
+  <si>
+    <t>林毅</t>
+  </si>
+  <si>
+    <t>宋锐扬</t>
+  </si>
+  <si>
+    <t>万泽棋</t>
+  </si>
+  <si>
+    <t>王俊杰</t>
+  </si>
+  <si>
+    <t>王与乐</t>
+  </si>
+  <si>
+    <t>王跃衡</t>
+  </si>
+  <si>
+    <t>徐景天</t>
+  </si>
+  <si>
+    <t>许景宣</t>
+  </si>
+  <si>
+    <t>袁晗玥</t>
+  </si>
+  <si>
+    <t>张梦扬</t>
+  </si>
+  <si>
+    <t>张旭</t>
+  </si>
+  <si>
+    <t>郑力炫</t>
+  </si>
+  <si>
+    <t>学院名称</t>
+  </si>
+  <si>
+    <t>数学科学学院</t>
+  </si>
+  <si>
+    <t>专业名称</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>平时分</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>80%</t>
   </si>
   <si>
     <t>99%</t>
@@ -1590,7 +2271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1600,14 +2281,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,31 +2308,31 @@
     <col min="3" max="3" width="4.7109375" customWidth="true"/>
     <col min="4" max="4" width="7.7109375" customWidth="true"/>
     <col min="5" max="5" width="8.7109375" customWidth="true"/>
-    <col min="6" max="6" width="6.28515625" customWidth="true"/>
+    <col min="6" max="6" width="5.7109375" customWidth="true"/>
     <col min="7" max="7" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>291</v>
+        <v>519</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>520</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>363</v>
+        <v>591</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>434</v>
+        <v>662</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>436</v>
+        <v>664</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>448</v>
+        <v>676</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>518</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2">
@@ -1657,19 +2340,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>521</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>364</v>
+        <v>592</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>449</v>
+        <v>677</v>
       </c>
       <c r="G2" s="0"/>
     </row>
@@ -1678,19 +2361,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>294</v>
+        <v>522</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>365</v>
+        <v>593</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>450</v>
+        <v>678</v>
       </c>
       <c r="G3" s="0"/>
     </row>
@@ -1699,19 +2382,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>295</v>
+        <v>523</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>366</v>
+        <v>594</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>451</v>
+        <v>679</v>
       </c>
       <c r="G4" s="0"/>
     </row>
@@ -1720,19 +2403,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>296</v>
+        <v>524</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>367</v>
+        <v>595</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>452</v>
+        <v>680</v>
       </c>
       <c r="G5" s="0"/>
     </row>
@@ -1741,19 +2424,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>297</v>
+        <v>525</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>368</v>
+        <v>596</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>453</v>
+        <v>681</v>
       </c>
       <c r="G6" s="0"/>
     </row>
@@ -1762,19 +2445,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>298</v>
+        <v>526</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>369</v>
+        <v>597</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>454</v>
+        <v>682</v>
       </c>
       <c r="G7" s="0"/>
     </row>
@@ -1783,19 +2466,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>299</v>
+        <v>527</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>370</v>
+        <v>598</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>455</v>
+        <v>683</v>
       </c>
       <c r="G8" s="0"/>
     </row>
@@ -1804,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>371</v>
+        <v>599</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>456</v>
+        <v>684</v>
       </c>
       <c r="G9" s="0"/>
     </row>
@@ -1825,19 +2508,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>301</v>
+        <v>529</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>372</v>
+        <v>600</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>457</v>
+        <v>685</v>
       </c>
       <c r="G10" s="0"/>
     </row>
@@ -1846,19 +2529,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>302</v>
+        <v>530</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>373</v>
+        <v>601</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>458</v>
+        <v>686</v>
       </c>
       <c r="G11" s="0"/>
     </row>
@@ -1867,19 +2550,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>303</v>
+        <v>531</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>459</v>
+        <v>687</v>
       </c>
       <c r="G12" s="0"/>
     </row>
@@ -1888,19 +2571,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>304</v>
+        <v>532</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>460</v>
+        <v>688</v>
       </c>
       <c r="G13" s="0"/>
     </row>
@@ -1909,19 +2592,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>305</v>
+        <v>533</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>461</v>
+        <v>689</v>
       </c>
       <c r="G14" s="0"/>
     </row>
@@ -1930,19 +2613,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>306</v>
+        <v>534</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>377</v>
+        <v>605</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>462</v>
+        <v>690</v>
       </c>
       <c r="G15" s="0"/>
     </row>
@@ -1951,19 +2634,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>307</v>
+        <v>535</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>378</v>
+        <v>606</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>463</v>
+        <v>691</v>
       </c>
       <c r="G16" s="0"/>
     </row>
@@ -1972,19 +2655,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>379</v>
+        <v>607</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>464</v>
+        <v>692</v>
       </c>
       <c r="G17" s="0"/>
     </row>
@@ -1993,19 +2676,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>309</v>
+        <v>537</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>380</v>
+        <v>608</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>465</v>
+        <v>693</v>
       </c>
       <c r="G18" s="0"/>
     </row>
@@ -2014,19 +2697,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>310</v>
+        <v>538</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>381</v>
+        <v>609</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>466</v>
+        <v>694</v>
       </c>
       <c r="G19" s="0"/>
     </row>
@@ -2035,19 +2718,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>311</v>
+        <v>539</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>382</v>
+        <v>610</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>467</v>
+        <v>695</v>
       </c>
       <c r="G20" s="0"/>
     </row>
@@ -2056,19 +2739,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>312</v>
+        <v>540</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>383</v>
+        <v>611</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>468</v>
+        <v>696</v>
       </c>
       <c r="G21" s="0"/>
     </row>
@@ -2077,19 +2760,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>313</v>
+        <v>541</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>384</v>
+        <v>612</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>469</v>
+        <v>697</v>
       </c>
       <c r="G22" s="0"/>
     </row>
@@ -2098,19 +2781,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>314</v>
+        <v>542</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>385</v>
+        <v>613</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>470</v>
+        <v>698</v>
       </c>
       <c r="G23" s="0"/>
     </row>
@@ -2119,19 +2802,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>386</v>
+        <v>614</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>471</v>
+        <v>699</v>
       </c>
       <c r="G24" s="0"/>
     </row>
@@ -2140,19 +2823,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>316</v>
+        <v>544</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>387</v>
+        <v>615</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="G25" s="0"/>
     </row>
@@ -2161,19 +2844,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>317</v>
+        <v>545</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>388</v>
+        <v>616</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>473</v>
+        <v>701</v>
       </c>
       <c r="G26" s="0"/>
     </row>
@@ -2182,19 +2865,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>318</v>
+        <v>546</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>389</v>
+        <v>617</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>474</v>
+        <v>702</v>
       </c>
       <c r="G27" s="0"/>
     </row>
@@ -2203,19 +2886,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>319</v>
+        <v>547</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>390</v>
+        <v>618</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>437</v>
+        <v>665</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>475</v>
+        <v>702</v>
       </c>
       <c r="G28" s="0"/>
     </row>
@@ -2224,19 +2907,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>320</v>
+        <v>548</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>391</v>
+        <v>619</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>438</v>
+        <v>666</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>476</v>
+        <v>703</v>
       </c>
       <c r="G29" s="0"/>
     </row>
@@ -2245,19 +2928,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>321</v>
+        <v>549</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>392</v>
+        <v>620</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>477</v>
+        <v>704</v>
       </c>
       <c r="G30" s="0"/>
     </row>
@@ -2266,19 +2949,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>322</v>
+        <v>550</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>478</v>
+        <v>705</v>
       </c>
       <c r="G31" s="0"/>
     </row>
@@ -2287,19 +2970,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>323</v>
+        <v>551</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>394</v>
+        <v>622</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>479</v>
+        <v>706</v>
       </c>
       <c r="G32" s="0"/>
     </row>
@@ -2308,19 +2991,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>324</v>
+        <v>552</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>395</v>
+        <v>623</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>480</v>
+        <v>707</v>
       </c>
       <c r="G33" s="0"/>
     </row>
@@ -2329,19 +3012,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>325</v>
+        <v>553</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>396</v>
+        <v>624</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>481</v>
+        <v>708</v>
       </c>
       <c r="G34" s="0"/>
     </row>
@@ -2350,19 +3033,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>326</v>
+        <v>554</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>397</v>
+        <v>625</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>439</v>
+        <v>667</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>482</v>
+        <v>709</v>
       </c>
       <c r="G35" s="0"/>
     </row>
@@ -2371,19 +3054,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>327</v>
+        <v>555</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>398</v>
+        <v>626</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>440</v>
+        <v>668</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>483</v>
+        <v>710</v>
       </c>
       <c r="G36" s="0"/>
     </row>
@@ -2392,19 +3075,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>328</v>
+        <v>556</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>399</v>
+        <v>627</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>484</v>
+        <v>711</v>
       </c>
       <c r="G37" s="0"/>
     </row>
@@ -2413,19 +3096,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>329</v>
+        <v>557</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>400</v>
+        <v>628</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>485</v>
+        <v>712</v>
       </c>
       <c r="G38" s="0"/>
     </row>
@@ -2434,19 +3117,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>330</v>
+        <v>558</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>401</v>
+        <v>629</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>486</v>
+        <v>713</v>
       </c>
       <c r="G39" s="0"/>
     </row>
@@ -2455,19 +3138,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>402</v>
+        <v>630</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>487</v>
+        <v>714</v>
       </c>
       <c r="G40" s="0"/>
     </row>
@@ -2476,19 +3159,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>332</v>
+        <v>560</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>403</v>
+        <v>631</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>488</v>
+        <v>715</v>
       </c>
       <c r="G41" s="0"/>
     </row>
@@ -2497,19 +3180,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>333</v>
+        <v>561</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>404</v>
+        <v>632</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>489</v>
+        <v>716</v>
       </c>
       <c r="G42" s="0"/>
     </row>
@@ -2518,19 +3201,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>334</v>
+        <v>562</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>405</v>
+        <v>633</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>490</v>
+        <v>717</v>
       </c>
       <c r="G43" s="0"/>
     </row>
@@ -2539,19 +3222,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>335</v>
+        <v>563</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>406</v>
+        <v>634</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>491</v>
+        <v>718</v>
       </c>
       <c r="G44" s="0"/>
     </row>
@@ -2560,19 +3243,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>336</v>
+        <v>564</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>407</v>
+        <v>635</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>492</v>
+        <v>719</v>
       </c>
       <c r="G45" s="0"/>
     </row>
@@ -2581,19 +3264,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>337</v>
+        <v>565</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>408</v>
+        <v>636</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>493</v>
+        <v>720</v>
       </c>
       <c r="G46" s="0"/>
     </row>
@@ -2602,19 +3285,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>338</v>
+        <v>566</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>409</v>
+        <v>637</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>494</v>
+        <v>721</v>
       </c>
       <c r="G47" s="0"/>
     </row>
@@ -2623,19 +3306,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>410</v>
+        <v>638</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>441</v>
+        <v>669</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>495</v>
+        <v>722</v>
       </c>
       <c r="G48" s="0"/>
     </row>
@@ -2644,19 +3327,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>340</v>
+        <v>568</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>411</v>
+        <v>639</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>442</v>
+        <v>670</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>496</v>
+        <v>723</v>
       </c>
       <c r="G49" s="0"/>
     </row>
@@ -2665,19 +3348,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>341</v>
+        <v>569</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>412</v>
+        <v>640</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>443</v>
+        <v>671</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>497</v>
+        <v>724</v>
       </c>
       <c r="G50" s="0"/>
     </row>
@@ -2686,19 +3369,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>342</v>
+        <v>570</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>413</v>
+        <v>641</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>443</v>
+        <v>671</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>498</v>
+        <v>725</v>
       </c>
       <c r="G51" s="0"/>
     </row>
@@ -2707,19 +3390,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>343</v>
+        <v>571</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>414</v>
+        <v>642</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>443</v>
+        <v>671</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>499</v>
+        <v>726</v>
       </c>
       <c r="G52" s="0"/>
     </row>
@@ -2728,19 +3411,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>344</v>
+        <v>572</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>415</v>
+        <v>643</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>443</v>
+        <v>671</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="G53" s="0"/>
     </row>
@@ -2749,19 +3432,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>345</v>
+        <v>573</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>416</v>
+        <v>644</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>444</v>
+        <v>672</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>501</v>
+        <v>728</v>
       </c>
       <c r="G54" s="0"/>
     </row>
@@ -2770,19 +3453,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>417</v>
+        <v>645</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>502</v>
+        <v>729</v>
       </c>
       <c r="G55" s="0"/>
     </row>
@@ -2791,19 +3474,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>347</v>
+        <v>575</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>418</v>
+        <v>646</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>503</v>
+        <v>730</v>
       </c>
       <c r="G56" s="0"/>
     </row>
@@ -2812,19 +3495,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>348</v>
+        <v>576</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>419</v>
+        <v>647</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>504</v>
+        <v>731</v>
       </c>
       <c r="G57" s="0"/>
     </row>
@@ -2833,19 +3516,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>349</v>
+        <v>577</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>420</v>
+        <v>648</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>505</v>
+        <v>732</v>
       </c>
       <c r="G58" s="0"/>
     </row>
@@ -2854,19 +3537,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>350</v>
+        <v>578</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>421</v>
+        <v>649</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>506</v>
+        <v>733</v>
       </c>
       <c r="G59" s="0"/>
     </row>
@@ -2875,19 +3558,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>351</v>
+        <v>579</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>507</v>
+        <v>734</v>
       </c>
       <c r="G60" s="0"/>
     </row>
@@ -2896,19 +3579,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>352</v>
+        <v>580</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>423</v>
+        <v>651</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>508</v>
+        <v>735</v>
       </c>
       <c r="G61" s="0"/>
     </row>
@@ -2917,19 +3600,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>424</v>
+        <v>652</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>509</v>
+        <v>736</v>
       </c>
       <c r="G62" s="0"/>
     </row>
@@ -2938,19 +3621,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>354</v>
+        <v>582</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>425</v>
+        <v>653</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>509</v>
+        <v>736</v>
       </c>
       <c r="G63" s="0"/>
     </row>
@@ -2959,19 +3642,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>426</v>
+        <v>654</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>445</v>
+        <v>673</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>510</v>
+        <v>737</v>
       </c>
       <c r="G64" s="0"/>
     </row>
@@ -2980,19 +3663,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>356</v>
+        <v>584</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>427</v>
+        <v>655</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>446</v>
+        <v>674</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>511</v>
+        <v>738</v>
       </c>
       <c r="G65" s="0"/>
     </row>
@@ -3001,19 +3684,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>357</v>
+        <v>585</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>428</v>
+        <v>656</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>512</v>
+        <v>739</v>
       </c>
       <c r="G66" s="0"/>
     </row>
@@ -3022,19 +3705,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>358</v>
+        <v>586</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>429</v>
+        <v>657</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>513</v>
+        <v>740</v>
       </c>
       <c r="G67" s="0"/>
     </row>
@@ -3043,19 +3726,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>359</v>
+        <v>587</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>430</v>
+        <v>658</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>514</v>
+        <v>741</v>
       </c>
       <c r="G68" s="0"/>
     </row>
@@ -3064,19 +3747,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>360</v>
+        <v>588</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>431</v>
+        <v>659</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>515</v>
+        <v>742</v>
       </c>
       <c r="G69" s="0"/>
     </row>
@@ -3085,19 +3768,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>361</v>
+        <v>589</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>432</v>
+        <v>660</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>516</v>
+        <v>743</v>
       </c>
       <c r="G70" s="0"/>
     </row>
@@ -3106,19 +3789,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>362</v>
+        <v>590</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>433</v>
+        <v>661</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>435</v>
+        <v>663</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>447</v>
+        <v>675</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>517</v>
+        <v>744</v>
       </c>
       <c r="G71" s="0"/>
     </row>
